--- a/public/templates/employee-template.xlsx
+++ b/public/templates/employee-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\Project EngageProX\engageprox-event-management\engageprox-frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2EBF32-550A-4C74-B0C7-6B5B0CF970AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C79F5E-59DE-4392-A893-4E767BAE15F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{1B6645EA-EF13-4ADD-81BF-F923CBB6B43E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{1B6645EA-EF13-4ADD-81BF-F923CBB6B43E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Designation</t>
   </si>
@@ -56,24 +56,12 @@
     <t>ProfilePicture</t>
   </si>
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>Role</t>
   </si>
   <si>
-    <t>PasswordHash</t>
-  </si>
-  <si>
-    <t>isActive</t>
-  </si>
-  <si>
     <t>PhoneNumber</t>
   </si>
   <si>
@@ -81,6 +69,12 @@
   </si>
   <si>
     <t>EmployeeType</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
+  </si>
+  <si>
+    <t>FullName</t>
   </si>
 </sst>
 </file>
@@ -116,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,75 +446,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C2FDF-C577-4296-B2C4-A2BC80AEB577}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.9453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.26171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.05078125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.9453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1015625" customWidth="1"/>
+    <col min="5" max="5" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.05078125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.9453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.41796875" customWidth="1"/>
+    <col min="12" max="12" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
